--- a/Pmeta.xlsx
+++ b/Pmeta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="405">
   <si>
     <t>Sample_IDs</t>
   </si>
@@ -197,7 +197,7 @@
     <t>GSM645433</t>
   </si>
   <si>
-    <t>BCR-ABL</t>
+    <t>BCR-ABL1</t>
   </si>
   <si>
     <t>GSM645434</t>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t>GSM2097247</t>
-  </si>
-  <si>
-    <t>BCR-ABL1</t>
   </si>
   <si>
     <t>GSE79533</t>
@@ -2411,8 +2408,8 @@
   <sheetPr/>
   <dimension ref="A1:E391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173:E391"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -5353,290 +5350,290 @@
         <v>6</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D173">
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D176">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D177">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D180">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D184">
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D185">
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D186">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D187">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D188">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D189">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
@@ -5648,12 +5645,12 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>6</v>
@@ -5665,12 +5662,12 @@
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>6</v>
@@ -5682,12 +5679,12 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>6</v>
@@ -5699,12 +5696,12 @@
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>6</v>
@@ -5716,12 +5713,12 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>6</v>
@@ -5733,12 +5730,12 @@
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>6</v>
@@ -5750,12 +5747,12 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>6</v>
@@ -5767,12 +5764,12 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>6</v>
@@ -5784,12 +5781,12 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>6</v>
@@ -5801,12 +5798,12 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>6</v>
@@ -5818,12 +5815,12 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>6</v>
@@ -5835,12 +5832,12 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>6</v>
@@ -5852,12 +5849,12 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>6</v>
@@ -5869,12 +5866,12 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>6</v>
@@ -5886,12 +5883,12 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>6</v>
@@ -5903,12 +5900,12 @@
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>6</v>
@@ -5920,12 +5917,12 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>6</v>
@@ -5937,12 +5934,12 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>6</v>
@@ -5954,12 +5951,12 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>6</v>
@@ -5971,12 +5968,12 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>6</v>
@@ -5988,12 +5985,12 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>6</v>
@@ -6005,12 +6002,12 @@
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>6</v>
@@ -6022,12 +6019,12 @@
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>6</v>
@@ -6039,12 +6036,12 @@
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>6</v>
@@ -6056,12 +6053,12 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>6</v>
@@ -6073,12 +6070,12 @@
         <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>6</v>
@@ -6090,12 +6087,12 @@
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>6</v>
@@ -6107,12 +6104,12 @@
         <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>6</v>
@@ -6124,12 +6121,12 @@
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>6</v>
@@ -6141,12 +6138,12 @@
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>6</v>
@@ -6158,12 +6155,12 @@
         <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>6</v>
@@ -6175,12 +6172,12 @@
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>6</v>
@@ -6192,12 +6189,12 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>6</v>
@@ -6209,12 +6206,12 @@
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>6</v>
@@ -6226,12 +6223,12 @@
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>6</v>
@@ -6243,12 +6240,12 @@
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>6</v>
@@ -6260,12 +6257,12 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>6</v>
@@ -6277,12 +6274,12 @@
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>6</v>
@@ -6294,12 +6291,12 @@
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>6</v>
@@ -6311,12 +6308,12 @@
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>6</v>
@@ -6328,12 +6325,12 @@
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>6</v>
@@ -6345,12 +6342,12 @@
         <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>6</v>
@@ -6362,12 +6359,12 @@
         <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>6</v>
@@ -6379,12 +6376,12 @@
         <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>6</v>
@@ -6396,12 +6393,12 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>6</v>
@@ -6413,12 +6410,12 @@
         <v>3</v>
       </c>
       <c r="E235" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>6</v>
@@ -6430,12 +6427,12 @@
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>6</v>
@@ -6447,12 +6444,12 @@
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>6</v>
@@ -6464,12 +6461,12 @@
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>6</v>
@@ -6481,12 +6478,12 @@
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>6</v>
@@ -6498,12 +6495,12 @@
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>6</v>
@@ -6515,12 +6512,12 @@
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>6</v>
@@ -6532,12 +6529,12 @@
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>6</v>
@@ -6549,12 +6546,12 @@
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>6</v>
@@ -6566,12 +6563,12 @@
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>6</v>
@@ -6583,12 +6580,12 @@
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>6</v>
@@ -6600,12 +6597,12 @@
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>6</v>
@@ -6617,12 +6614,12 @@
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>6</v>
@@ -6634,12 +6631,12 @@
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>6</v>
@@ -6651,12 +6648,12 @@
         <v>3</v>
       </c>
       <c r="E249" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>6</v>
@@ -6668,12 +6665,12 @@
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>6</v>
@@ -6685,12 +6682,12 @@
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>6</v>
@@ -6702,12 +6699,12 @@
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>6</v>
@@ -6719,12 +6716,12 @@
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>6</v>
@@ -6736,12 +6733,12 @@
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>6</v>
@@ -6753,12 +6750,12 @@
         <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>6</v>
@@ -6770,12 +6767,12 @@
         <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>6</v>
@@ -6787,12 +6784,12 @@
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>6</v>
@@ -6804,12 +6801,12 @@
         <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>6</v>
@@ -6821,12 +6818,12 @@
         <v>3</v>
       </c>
       <c r="E259" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>6</v>
@@ -6838,12 +6835,12 @@
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>6</v>
@@ -6855,12 +6852,12 @@
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>6</v>
@@ -6872,12 +6869,12 @@
         <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>6</v>
@@ -6889,12 +6886,12 @@
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>6</v>
@@ -6906,12 +6903,12 @@
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>6</v>
@@ -6923,12 +6920,12 @@
         <v>3</v>
       </c>
       <c r="E265" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>6</v>
@@ -6940,12 +6937,12 @@
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>6</v>
@@ -6957,12 +6954,12 @@
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>6</v>
@@ -6974,12 +6971,12 @@
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>6</v>
@@ -6991,12 +6988,12 @@
         <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>6</v>
@@ -7008,12 +7005,12 @@
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>6</v>
@@ -7025,12 +7022,12 @@
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>6</v>
@@ -7042,12 +7039,12 @@
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>6</v>
@@ -7059,12 +7056,12 @@
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>6</v>
@@ -7076,12 +7073,12 @@
         <v>3</v>
       </c>
       <c r="E274" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>6</v>
@@ -7093,12 +7090,12 @@
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>6</v>
@@ -7110,12 +7107,12 @@
         <v>3</v>
       </c>
       <c r="E276" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>6</v>
@@ -7127,12 +7124,12 @@
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>6</v>
@@ -7144,12 +7141,12 @@
         <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>6</v>
@@ -7161,12 +7158,12 @@
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>6</v>
@@ -7178,12 +7175,12 @@
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>6</v>
@@ -7195,12 +7192,12 @@
         <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>6</v>
@@ -7212,12 +7209,12 @@
         <v>3</v>
       </c>
       <c r="E282" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>6</v>
@@ -7229,12 +7226,12 @@
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>6</v>
@@ -7246,12 +7243,12 @@
         <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>6</v>
@@ -7263,12 +7260,12 @@
         <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>6</v>
@@ -7280,12 +7277,12 @@
         <v>3</v>
       </c>
       <c r="E286" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>6</v>
@@ -7297,12 +7294,12 @@
         <v>3</v>
       </c>
       <c r="E287" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>6</v>
@@ -7314,12 +7311,12 @@
         <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>6</v>
@@ -7331,12 +7328,12 @@
         <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>6</v>
@@ -7348,12 +7345,12 @@
         <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>6</v>
@@ -7365,12 +7362,12 @@
         <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>6</v>
@@ -7382,12 +7379,12 @@
         <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>6</v>
@@ -7399,12 +7396,12 @@
         <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>6</v>
@@ -7416,12 +7413,12 @@
         <v>3</v>
       </c>
       <c r="E294" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>6</v>
@@ -7433,12 +7430,12 @@
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>6</v>
@@ -7450,12 +7447,12 @@
         <v>3</v>
       </c>
       <c r="E296" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>6</v>
@@ -7467,12 +7464,12 @@
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>6</v>
@@ -7484,12 +7481,12 @@
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>6</v>
@@ -7501,12 +7498,12 @@
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>6</v>
@@ -7518,12 +7515,12 @@
         <v>3</v>
       </c>
       <c r="E300" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>6</v>
@@ -7535,12 +7532,12 @@
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>6</v>
@@ -7552,12 +7549,12 @@
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>6</v>
@@ -7569,12 +7566,12 @@
         <v>3</v>
       </c>
       <c r="E303" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>6</v>
@@ -7586,12 +7583,12 @@
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>6</v>
@@ -7603,12 +7600,12 @@
         <v>3</v>
       </c>
       <c r="E305" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>6</v>
@@ -7620,12 +7617,12 @@
         <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>6</v>
@@ -7637,12 +7634,12 @@
         <v>3</v>
       </c>
       <c r="E307" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>6</v>
@@ -7654,12 +7651,12 @@
         <v>3</v>
       </c>
       <c r="E308" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>6</v>
@@ -7671,12 +7668,12 @@
         <v>3</v>
       </c>
       <c r="E309" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>6</v>
@@ -7688,12 +7685,12 @@
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>6</v>
@@ -7705,12 +7702,12 @@
         <v>3</v>
       </c>
       <c r="E311" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>6</v>
@@ -7722,12 +7719,12 @@
         <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>6</v>
@@ -7739,12 +7736,12 @@
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>6</v>
@@ -7756,12 +7753,12 @@
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>6</v>
@@ -7773,12 +7770,12 @@
         <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>6</v>
@@ -7790,12 +7787,12 @@
         <v>3</v>
       </c>
       <c r="E316" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>6</v>
@@ -7807,12 +7804,12 @@
         <v>3</v>
       </c>
       <c r="E317" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>6</v>
@@ -7824,12 +7821,12 @@
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>6</v>
@@ -7841,12 +7838,12 @@
         <v>3</v>
       </c>
       <c r="E319" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>6</v>
@@ -7858,12 +7855,12 @@
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>6</v>
@@ -7875,12 +7872,12 @@
         <v>3</v>
       </c>
       <c r="E321" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>6</v>
@@ -7892,12 +7889,12 @@
         <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>6</v>
@@ -7909,12 +7906,12 @@
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>6</v>
@@ -7926,12 +7923,12 @@
         <v>3</v>
       </c>
       <c r="E324" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>6</v>
@@ -7943,12 +7940,12 @@
         <v>3</v>
       </c>
       <c r="E325" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>6</v>
@@ -7960,12 +7957,12 @@
         <v>3</v>
       </c>
       <c r="E326" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>6</v>
@@ -7977,12 +7974,12 @@
         <v>3</v>
       </c>
       <c r="E327" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>6</v>
@@ -7994,12 +7991,12 @@
         <v>3</v>
       </c>
       <c r="E328" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>6</v>
@@ -8011,12 +8008,12 @@
         <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>6</v>
@@ -8028,12 +8025,12 @@
         <v>3</v>
       </c>
       <c r="E330" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>6</v>
@@ -8045,12 +8042,12 @@
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>6</v>
@@ -8062,12 +8059,12 @@
         <v>3</v>
       </c>
       <c r="E332" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>6</v>
@@ -8079,12 +8076,12 @@
         <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>6</v>
@@ -8096,12 +8093,12 @@
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>6</v>
@@ -8113,12 +8110,12 @@
         <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>6</v>
@@ -8130,12 +8127,12 @@
         <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>6</v>
@@ -8147,12 +8144,12 @@
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>6</v>
@@ -8164,12 +8161,12 @@
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>6</v>
@@ -8181,12 +8178,12 @@
         <v>3</v>
       </c>
       <c r="E339" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>6</v>
@@ -8198,12 +8195,12 @@
         <v>3</v>
       </c>
       <c r="E340" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>6</v>
@@ -8215,12 +8212,12 @@
         <v>3</v>
       </c>
       <c r="E341" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>6</v>
@@ -8232,12 +8229,12 @@
         <v>3</v>
       </c>
       <c r="E342" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>6</v>
@@ -8249,12 +8246,12 @@
         <v>3</v>
       </c>
       <c r="E343" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>6</v>
@@ -8266,12 +8263,12 @@
         <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>6</v>
@@ -8283,12 +8280,12 @@
         <v>3</v>
       </c>
       <c r="E345" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>6</v>
@@ -8300,12 +8297,12 @@
         <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>6</v>
@@ -8317,12 +8314,12 @@
         <v>3</v>
       </c>
       <c r="E347" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>6</v>
@@ -8334,12 +8331,12 @@
         <v>3</v>
       </c>
       <c r="E348" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>6</v>
@@ -8351,12 +8348,12 @@
         <v>3</v>
       </c>
       <c r="E349" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>6</v>
@@ -8368,12 +8365,12 @@
         <v>3</v>
       </c>
       <c r="E350" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>6</v>
@@ -8385,12 +8382,12 @@
         <v>3</v>
       </c>
       <c r="E351" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>6</v>
@@ -8402,12 +8399,12 @@
         <v>3</v>
       </c>
       <c r="E352" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>6</v>
@@ -8419,12 +8416,12 @@
         <v>3</v>
       </c>
       <c r="E353" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>6</v>
@@ -8436,12 +8433,12 @@
         <v>3</v>
       </c>
       <c r="E354" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>6</v>
@@ -8453,12 +8450,12 @@
         <v>3</v>
       </c>
       <c r="E355" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>6</v>
@@ -8470,12 +8467,12 @@
         <v>3</v>
       </c>
       <c r="E356" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>6</v>
@@ -8487,12 +8484,12 @@
         <v>3</v>
       </c>
       <c r="E357" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>6</v>
@@ -8504,12 +8501,12 @@
         <v>3</v>
       </c>
       <c r="E358" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>6</v>
@@ -8521,12 +8518,12 @@
         <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>6</v>
@@ -8538,12 +8535,12 @@
         <v>3</v>
       </c>
       <c r="E360" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>6</v>
@@ -8555,12 +8552,12 @@
         <v>3</v>
       </c>
       <c r="E361" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>6</v>
@@ -8572,12 +8569,12 @@
         <v>3</v>
       </c>
       <c r="E362" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>34</v>
@@ -8589,12 +8586,12 @@
         <v>3</v>
       </c>
       <c r="E363" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>34</v>
@@ -8606,12 +8603,12 @@
         <v>3</v>
       </c>
       <c r="E364" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>34</v>
@@ -8623,12 +8620,12 @@
         <v>3</v>
       </c>
       <c r="E365" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>34</v>
@@ -8640,12 +8637,12 @@
         <v>3</v>
       </c>
       <c r="E366" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>34</v>
@@ -8657,12 +8654,12 @@
         <v>3</v>
       </c>
       <c r="E367" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>34</v>
@@ -8674,12 +8671,12 @@
         <v>3</v>
       </c>
       <c r="E368" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>34</v>
@@ -8691,12 +8688,12 @@
         <v>3</v>
       </c>
       <c r="E369" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>34</v>
@@ -8708,12 +8705,12 @@
         <v>3</v>
       </c>
       <c r="E370" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>34</v>
@@ -8725,12 +8722,12 @@
         <v>3</v>
       </c>
       <c r="E371" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>34</v>
@@ -8742,12 +8739,12 @@
         <v>3</v>
       </c>
       <c r="E372" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>34</v>
@@ -8759,12 +8756,12 @@
         <v>3</v>
       </c>
       <c r="E373" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>34</v>
@@ -8776,12 +8773,12 @@
         <v>3</v>
       </c>
       <c r="E374" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>34</v>
@@ -8793,12 +8790,12 @@
         <v>3</v>
       </c>
       <c r="E375" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>34</v>
@@ -8810,12 +8807,12 @@
         <v>3</v>
       </c>
       <c r="E376" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>34</v>
@@ -8827,12 +8824,12 @@
         <v>3</v>
       </c>
       <c r="E377" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>34</v>
@@ -8844,12 +8841,12 @@
         <v>3</v>
       </c>
       <c r="E378" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>34</v>
@@ -8861,12 +8858,12 @@
         <v>3</v>
       </c>
       <c r="E379" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>34</v>
@@ -8878,12 +8875,12 @@
         <v>3</v>
       </c>
       <c r="E380" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>34</v>
@@ -8895,12 +8892,12 @@
         <v>3</v>
       </c>
       <c r="E381" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>6</v>
@@ -8912,12 +8909,12 @@
         <v>3</v>
       </c>
       <c r="E382" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>6</v>
@@ -8929,12 +8926,12 @@
         <v>3</v>
       </c>
       <c r="E383" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>6</v>
@@ -8946,12 +8943,12 @@
         <v>3</v>
       </c>
       <c r="E384" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>6</v>
@@ -8963,12 +8960,12 @@
         <v>3</v>
       </c>
       <c r="E385" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>6</v>
@@ -8980,12 +8977,12 @@
         <v>3</v>
       </c>
       <c r="E386" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>6</v>
@@ -8997,12 +8994,12 @@
         <v>3</v>
       </c>
       <c r="E387" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>6</v>
@@ -9014,12 +9011,12 @@
         <v>3</v>
       </c>
       <c r="E388" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>6</v>
@@ -9031,12 +9028,12 @@
         <v>3</v>
       </c>
       <c r="E389" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>6</v>
@@ -9048,12 +9045,12 @@
         <v>3</v>
       </c>
       <c r="E390" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>6</v>
@@ -9065,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="E391" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
